--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.687688666666667</v>
+        <v>0.016376</v>
       </c>
       <c r="N2">
-        <v>14.063066</v>
+        <v>0.049128</v>
       </c>
       <c r="O2">
-        <v>0.9929463927259303</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P2">
-        <v>0.9929463927259304</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q2">
-        <v>955.2649999324005</v>
+        <v>1.359006264056</v>
       </c>
       <c r="R2">
-        <v>8597.384999391605</v>
+        <v>12.231056376504</v>
       </c>
       <c r="S2">
-        <v>0.662029888158675</v>
+        <v>0.2207811393220665</v>
       </c>
       <c r="T2">
-        <v>0.6620298881586753</v>
+        <v>0.2207811393220665</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016376</v>
+        <v>0.016924</v>
       </c>
       <c r="N3">
-        <v>0.049128</v>
+        <v>0.050772</v>
       </c>
       <c r="O3">
-        <v>0.003468764946551448</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P3">
-        <v>0.003468764946551449</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q3">
-        <v>3.337128540581333</v>
+        <v>1.404483513244</v>
       </c>
       <c r="R3">
-        <v>30.034156865232</v>
+        <v>12.640351619196</v>
       </c>
       <c r="S3">
-        <v>0.002312739223826396</v>
+        <v>0.2281692722207287</v>
       </c>
       <c r="T3">
-        <v>0.002312739223826397</v>
+        <v>0.2281692722207287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.016924</v>
+        <v>0.016376</v>
       </c>
       <c r="N4">
-        <v>0.050772</v>
+        <v>0.049128</v>
       </c>
       <c r="O4">
-        <v>0.003584842327518119</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P4">
-        <v>0.00358484232751812</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q4">
-        <v>3.448800892818667</v>
+        <v>1.033990290922667</v>
       </c>
       <c r="R4">
-        <v>31.03920803536801</v>
+        <v>9.305912618303999</v>
       </c>
       <c r="S4">
-        <v>0.002390131816318877</v>
+        <v>0.1679797661833695</v>
       </c>
       <c r="T4">
-        <v>0.002390131816318878</v>
+        <v>0.1679797661833695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.687688666666667</v>
+        <v>0.016924</v>
       </c>
       <c r="N5">
-        <v>14.063066</v>
+        <v>0.050772</v>
       </c>
       <c r="O5">
-        <v>0.9929463927259303</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P5">
-        <v>0.9929463927259304</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q5">
-        <v>295.983425024521</v>
+        <v>1.068591333877333</v>
       </c>
       <c r="R5">
-        <v>2663.850825220688</v>
+        <v>9.617322004895998</v>
       </c>
       <c r="S5">
-        <v>0.2051261940714583</v>
+        <v>0.1736009747732868</v>
       </c>
       <c r="T5">
-        <v>0.2051261940714583</v>
+        <v>0.1736009747732868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>38.719942</v>
       </c>
       <c r="H6">
-        <v>189.421768</v>
+        <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.049128</v>
       </c>
       <c r="O6">
-        <v>0.003468764946551448</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P6">
-        <v>0.003468764946551449</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q6">
-        <v>1.033990290922667</v>
+        <v>0.634077770192</v>
       </c>
       <c r="R6">
-        <v>9.305912618304001</v>
+        <v>5.706699931728</v>
       </c>
       <c r="S6">
-        <v>0.0007165890896297151</v>
+        <v>0.1030108662663358</v>
       </c>
       <c r="T6">
-        <v>0.0007165890896297153</v>
+        <v>0.1030108662663358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>38.719942</v>
       </c>
       <c r="H7">
-        <v>189.421768</v>
+        <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.050772</v>
       </c>
       <c r="O7">
-        <v>0.003584842327518119</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P7">
-        <v>0.00358484232751812</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q7">
-        <v>1.068591333877333</v>
+        <v>0.655296298408</v>
       </c>
       <c r="R7">
-        <v>9.617322004896002</v>
+        <v>5.897666685672</v>
       </c>
       <c r="S7">
-        <v>0.000740568744070182</v>
+        <v>0.1064579812342127</v>
       </c>
       <c r="T7">
-        <v>0.0007405687440701822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>38.719942</v>
-      </c>
-      <c r="H8">
-        <v>116.159826</v>
-      </c>
-      <c r="I8">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J8">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>4.687688666666667</v>
-      </c>
-      <c r="N8">
-        <v>14.063066</v>
-      </c>
-      <c r="O8">
-        <v>0.9929463927259303</v>
-      </c>
-      <c r="P8">
-        <v>0.9929463927259304</v>
-      </c>
-      <c r="Q8">
-        <v>181.5070332873907</v>
-      </c>
-      <c r="R8">
-        <v>1633.563299586516</v>
-      </c>
-      <c r="S8">
-        <v>0.125790310495797</v>
-      </c>
-      <c r="T8">
-        <v>0.125790310495797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>38.719942</v>
-      </c>
-      <c r="H9">
-        <v>116.159826</v>
-      </c>
-      <c r="I9">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J9">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.016376</v>
-      </c>
-      <c r="N9">
-        <v>0.049128</v>
-      </c>
-      <c r="O9">
-        <v>0.003468764946551448</v>
-      </c>
-      <c r="P9">
-        <v>0.003468764946551449</v>
-      </c>
-      <c r="Q9">
-        <v>0.6340777701919998</v>
-      </c>
-      <c r="R9">
-        <v>5.706699931727999</v>
-      </c>
-      <c r="S9">
-        <v>0.0004394366330953372</v>
-      </c>
-      <c r="T9">
-        <v>0.0004394366330953374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>38.719942</v>
-      </c>
-      <c r="H10">
-        <v>116.159826</v>
-      </c>
-      <c r="I10">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J10">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.016924</v>
-      </c>
-      <c r="N10">
-        <v>0.050772</v>
-      </c>
-      <c r="O10">
-        <v>0.003584842327518119</v>
-      </c>
-      <c r="P10">
-        <v>0.00358484232751812</v>
-      </c>
-      <c r="Q10">
-        <v>0.655296298408</v>
-      </c>
-      <c r="R10">
-        <v>5.897666685672</v>
-      </c>
-      <c r="S10">
-        <v>0.0004541417671290602</v>
-      </c>
-      <c r="T10">
-        <v>0.0004541417671290603</v>
+        <v>0.1064579812342127</v>
       </c>
     </row>
   </sheetData>
